--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251027_201343.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251027_201343.xlsx
@@ -5035,7 +5035,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
